--- a/modules/purchase/uploads/file_sample/Sample_vendor_payment_tracker_item_en.xlsx
+++ b/modules/purchase/uploads/file_sample/Sample_vendor_payment_tracker_item_en.xlsx
@@ -24,9 +24,6 @@
     <t>(*)Invoice Code</t>
   </si>
   <si>
-    <t>BIL Payment date</t>
-  </si>
-  <si>
     <t>TDS (BIL)</t>
   </si>
   <si>
@@ -36,13 +33,16 @@
     <t>This bill (RIL)</t>
   </si>
   <si>
-    <t>RIL Payment date</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
     <t>BIL Payment made</t>
+  </si>
+  <si>
+    <t>BIL Payment date (dd-mm-yyyy)</t>
+  </si>
+  <si>
+    <t>RIL Payment date (dd-mm-yyyy)</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,7 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
@@ -417,25 +419,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
